--- a/Calmari/NeldeCalma/Calma calculations.xlsx
+++ b/Calmari/NeldeCalma/Calma calculations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="210" windowWidth="18960" windowHeight="8415" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="210" windowWidth="18960" windowHeight="8415" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
   <si>
     <t>LEDs power calculations</t>
   </si>
@@ -178,6 +178,27 @@
   </si>
   <si>
     <t>us</t>
+  </si>
+  <si>
+    <t>Us</t>
+  </si>
+  <si>
+    <t>mv</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
   </si>
 </sst>
 </file>
@@ -360,7 +381,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
@@ -376,6 +397,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="6"/>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent3" xfId="5" builtinId="38"/>
@@ -870,10 +892,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C20"/>
+  <dimension ref="A2:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,7 +997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>48</v>
       </c>
@@ -984,7 +1006,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>49</v>
       </c>
@@ -993,7 +1015,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>50</v>
       </c>
@@ -1002,13 +1024,110 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="9">
         <f>B19*B18*B17</f>
         <v>8000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25">
+        <v>235</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <f>B37</f>
+        <v>0.72000000000000008</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27">
+        <f>B25/B26</f>
+        <v>326.38888888888886</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="15">
+        <f>B25*B27/1000000</f>
+        <v>7.6701388888888875E-2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33">
+        <f>B32/B31</f>
+        <v>0.67142857142857137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37">
+        <f>(B35*B36)/(B35+B36)</f>
+        <v>0.72000000000000008</v>
       </c>
     </row>
   </sheetData>
@@ -1020,7 +1139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/Calmari/NeldeCalma/Calma calculations.xlsx
+++ b/Calmari/NeldeCalma/Calma calculations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="210" windowWidth="18960" windowHeight="8415" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="270" windowWidth="18960" windowHeight="8355" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -894,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="B26">
         <f>B37</f>
-        <v>0.72000000000000008</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="C26" t="s">
         <v>25</v>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B27">
         <f>B25/B26</f>
-        <v>326.38888888888886</v>
+        <v>352.50000000000006</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B28" s="15">
         <f>B25*B27/1000000</f>
-        <v>7.6701388888888875E-2</v>
+        <v>8.2837500000000008E-2</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
@@ -1110,7 +1110,7 @@
         <v>59</v>
       </c>
       <c r="B35">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="B37">
         <f>(B35*B36)/(B35+B36)</f>
-        <v>0.72000000000000008</v>
+        <v>0.66666666666666652</v>
       </c>
     </row>
   </sheetData>

--- a/Calmari/NeldeCalma/Calma calculations.xlsx
+++ b/Calmari/NeldeCalma/Calma calculations.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="270" windowWidth="18960" windowHeight="8355" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="330" windowWidth="18960" windowHeight="8295" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="PWM" sheetId="2" r:id="rId2"/>
     <sheet name="Radio" sheetId="3" r:id="rId3"/>
+    <sheet name="Power" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144315"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="74">
   <si>
     <t>LEDs power calculations</t>
   </si>
@@ -199,6 +200,45 @@
   </si>
   <si>
     <t>R2</t>
+  </si>
+  <si>
+    <t>AA == LR06</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>r/p</t>
+  </si>
+  <si>
+    <t>N U</t>
+  </si>
+  <si>
+    <t>N C</t>
+  </si>
+  <si>
+    <t>N summ</t>
+  </si>
+  <si>
+    <t>Total price</t>
+  </si>
+  <si>
+    <t>Total U</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>Total C</t>
+  </si>
+  <si>
+    <t>D == LR20 == 373</t>
+  </si>
+  <si>
+    <t>C == LR14</t>
   </si>
 </sst>
 </file>
@@ -894,7 +934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -1271,4 +1311,292 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="2">
+        <f>B8*B7</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="9">
+        <f>B6*B7</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="9">
+        <f>B8*B5</f>
+        <v>8.1000000000000014</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="9">
+        <f>B9*B4</f>
+        <v>106.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="2">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="2">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="2">
+        <f>B19*B18</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="9">
+        <f>B17*B18</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="9">
+        <f>B19*B16</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="9">
+        <f>B20*B15</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="2">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="2">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="2">
+        <f>B30*B29</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="9">
+        <f>B28*B29</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="9">
+        <f>B30*B27</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="9">
+        <f>B31*B26</f>
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Calmari/NeldeCalma/Calma calculations.xlsx
+++ b/Calmari/NeldeCalma/Calma calculations.xlsx
@@ -1318,7 +1318,7 @@
   <dimension ref="A3:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1369,7 +1369,7 @@
         <v>64</v>
       </c>
       <c r="B7" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1377,7 +1377,7 @@
         <v>65</v>
       </c>
       <c r="B8" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B9" s="2">
         <f>B8*B7</f>
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="B10" s="9">
         <f>B6*B7</f>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="B11" s="9">
         <f>B8*B5</f>
-        <v>8.1000000000000014</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B12" s="9">
         <f>B9*B4</f>
-        <v>106.2</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
